--- a/Store and Equipment Totals Information - Final Dataset.xlsx
+++ b/Store and Equipment Totals Information - Final Dataset.xlsx
@@ -31,13 +31,13 @@
     <t>RM</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Repair</t>
-  </si>
-  <si>
-    <t>Replace</t>
+    <t>Equipment Quantity</t>
+  </si>
+  <si>
+    <t>Needs Repair Total</t>
+  </si>
+  <si>
+    <t>Needs Replacement Total</t>
   </si>
   <si>
     <t xml:space="preserve">  cb    </t>
@@ -2571,10 +2571,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2582,6 +2582,28 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2601,15 +2623,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2623,9 +2637,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2639,16 +2652,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2662,33 +2682,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2702,6 +2708,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2709,21 +2723,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2738,19 +2738,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2762,13 +2762,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2792,13 +2810,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2810,13 +2834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2828,67 +2852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2906,7 +2870,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2918,7 +2900,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2947,6 +2947,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2958,15 +2967,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2989,8 +2989,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3012,6 +3012,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3020,21 +3029,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3052,135 +3052,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3245,17 +3248,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H364" totalsRowShown="0">
-  <autoFilter ref="A1:H364"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H365" totalsRowShown="0">
+  <autoFilter ref="A1:H365"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Store Number"/>
     <tableColumn id="2" name="City"/>
     <tableColumn id="3" name="Manager"/>
     <tableColumn id="4" name="DM"/>
     <tableColumn id="5" name="RM"/>
-    <tableColumn id="6" name="Quantity"/>
-    <tableColumn id="7" name="Repair"/>
-    <tableColumn id="8" name="Replace"/>
+    <tableColumn id="6" name="Equipment Quantity"/>
+    <tableColumn id="7" name="Needs Repair Total"/>
+    <tableColumn id="8" name="Needs Replacement Total"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3519,10 +3522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H364"/>
+  <dimension ref="A1:H365"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -12982,6 +12985,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="365" spans="8:8">
+      <c r="H365" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
